--- a/Results/cnn_validation_CM_PLV.xlsx
+++ b/Results/cnn_validation_CM_PLV.xlsx
@@ -2,31 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +55,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +80,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,13 +443,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1313,6 +1331,12 @@
       </c>
       <c r="E46" t="n">
         <v>0.9613368456094763</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47">
+        <f>AVERAGE(B2:B46)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
